--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/71_Şırnak_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/71_Şırnak_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6F73CE-19BC-41C3-BB14-BE5C97AC6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBE4568-D8BB-4358-938B-E65786B4F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{825ADAAF-2EA7-48C1-9320-E07A6802BC71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{1C7D0D33-6426-42D8-86FF-C59E0FFE3541}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -924,14 +924,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AF2F91FE-7666-4D77-8907-8DFCB449B6C1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{50AC1BC0-18BE-42F2-A16C-A6CD1163D07D}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{4ED5D63A-7C1A-4322-93CD-EC6A8FE768C0}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{B1ECC2C1-7641-4E3E-9858-E60E568CE76A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B3DBEA3F-1026-47DC-8B36-172F96CB9B01}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C1CB5CF0-9C3F-42D0-9555-6C5844E2EC53}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{FA8AF172-D76B-4628-A5B4-C6B0C738B496}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2BFD021D-6CD0-456A-85D7-83E576C318C8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F3E7CDFA-BFB9-4E24-B7BF-7E3B4CC84FBE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A21FD599-96DE-4D54-860E-2DA488CD3D9D}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A97B09C7-6FA1-46AB-BEE6-E32D9E2FCBC4}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{C57CE79A-7821-4908-989B-2E724D2D37B7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{321AA353-BC1B-44B0-A983-A926959D8B92}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CC15842C-04FC-45C7-BC2D-D359B596E66D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{AD7E6F47-CAE0-45B1-9CC6-EB2F26C44D71}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{54B61114-B96E-42C1-A5D8-B29C9D285E69}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37BC95-C9AA-4EE4-A1CA-D9E721D20E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04B3872-87E5-4F8D-9583-6ECE3419FE81}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185477F4-230B-432D-8D8A-8C3C9973CB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B49F202-F8F2-4B19-B984-771F673719CA}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84DBA64-18DA-444E-8CBD-4D830BCCE47C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42A7E12-B6CB-41FC-B9A0-0B4D7A28956F}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5196,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5437-6E9F-4390-A299-7E50D92F0D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AFF222-1217-44F2-91D9-4DB3EC3C3D22}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6480,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC78DA9-6CA8-43C5-BCB4-9D62857A7A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061AA1A8-0237-4A56-B0C5-B01E449080B6}">
   <dimension ref="B2:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7779,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A015D2C-781D-4837-976F-5B82916799D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389783A4-4B03-4A94-8D68-F0A7EFDA90C5}">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9079,7 +9079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173EFC53-8825-4EF3-AC74-E3A9A9ECA8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05CAD0B-A7E9-45D6-9D49-C890B77AEAFD}">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10379,7 +10379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773317A-013D-40CB-A4B3-8541CA52CDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DCCF89-200D-4755-AF74-954143BA1AA5}">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11683,7 +11683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F04FA2-904B-42A9-818D-47B3C2F09AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B0FEE-644E-4A2E-A3A4-6CBA0EED45DE}">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12985,7 +12985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E039E20B-A9DD-4FF5-B926-9EFF8C441CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD491C1-F5B8-4204-AE23-11D1D09FEA44}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14281,7 +14281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A3F697-D6A1-416E-8228-5BA857FF5E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A9E6F4-0D53-4366-AFB1-60058B9E9868}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15577,7 +15577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC1DAC-5C24-454C-A5BE-3CB363E1AFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A34DEA-18E4-4220-AE2E-8CE3748129B0}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
